--- a/Task/2015-12-02-商品重分类/RA重分类的影响.xlsx
+++ b/Task/2015-12-02-商品重分类/RA重分类的影响.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="标准逻辑" sheetId="1" r:id="rId1"/>
     <sheet name="维度" sheetId="2" r:id="rId2"/>
+    <sheet name="事实" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +130,12 @@
   <si>
     <t>RMS.ITEM_MASTER</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL_BBG_RETAIL_SALESTRANSACTIONFACT</t>
+  </si>
+  <si>
+    <t>BBG_SIL_BBG_RA_INVADJ_IT_LC_DY_FACT</t>
   </si>
 </sst>
 </file>
@@ -577,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -645,4 +652,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="39.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>